--- a/TP4/diferencia_medias_train_test.xlsx
+++ b/TP4/diferencia_medias_train_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,86 +559,86 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>adulto_equiv</t>
+          <t>cobertura_medica</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8033162162162162</v>
+        <v>2.642838161041722</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8012571067593177</v>
+        <v>2.726485148514851</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002059109456898467</v>
+        <v>-0.08364698747312937</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6833252998254649</v>
+        <v>0.08815778470472678</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2025</v>
+        <v>2005</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>horastrab</t>
+          <t>sexo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36.73719376391982</v>
+        <v>1.519820295983087</v>
       </c>
       <c r="D7" t="n">
-        <v>35.92676767676767</v>
+        <v>1.514796547472256</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8104260871521447</v>
+        <v>0.005023748510830206</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4568351174208127</v>
+        <v>0.7348998821656691</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2025</v>
+        <v>2005</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educ</t>
+          <t>ESTADO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9.759351059035602</v>
+        <v>2.467460317460318</v>
       </c>
       <c r="D8" t="n">
-        <v>9.857749469214438</v>
+        <v>2.451294697903823</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.09839841017883622</v>
+        <v>0.01616561955649498</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5800231907889186</v>
+        <v>0.6343202395194976</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2025</v>
+        <v>2005</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>edad</t>
+          <t>estado_civil</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>35.85233160621762</v>
+        <v>3.744186046511628</v>
       </c>
       <c r="D9" t="n">
-        <v>34.91758793969849</v>
+        <v>3.749075215782984</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9347436665191253</v>
+        <v>-0.004889169271355964</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2512870735236939</v>
+        <v>0.916227049510597</v>
       </c>
     </row>
     <row r="10">
@@ -647,20 +647,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>edad2</t>
+          <t>horastrab</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1755.186528497409</v>
+        <v>36.73719376391982</v>
       </c>
       <c r="D10" t="n">
-        <v>1677.008040201005</v>
+        <v>35.92676767676767</v>
       </c>
       <c r="E10" t="n">
-        <v>78.17848829640434</v>
+        <v>0.8104260871521447</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2361784759763454</v>
+        <v>0.4568351174208127</v>
       </c>
     </row>
     <row r="11">
@@ -669,20 +669,152 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>adulto_equiv</t>
+          <t>educ</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8180197132616487</v>
+        <v>9.759351059035602</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8136504653567734</v>
+        <v>9.857749469214438</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004369247904875251</v>
+        <v>-0.09839841017883622</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4516532603531239</v>
+        <v>0.5800231907889186</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>edad</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>35.85233160621762</v>
+      </c>
+      <c r="D12" t="n">
+        <v>34.91758793969849</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9347436665191253</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2512870735236939</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>edad2</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1755.186528497409</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1677.008040201005</v>
+      </c>
+      <c r="E13" t="n">
+        <v>78.17848829640434</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2361784759763454</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cobertura_medica</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2.223478260869565</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.261352169525732</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.03787390865616658</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7775339479725329</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>sexo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.533361847733105</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.532934131736527</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.000427715996578204</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9818955340061148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ESTADO</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2.337895637296835</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.320359281437126</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.01753635585970903</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.6801715739409603</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>estado_civil</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3.535928143712575</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.596806387225549</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.060878243512974</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3326346976957557</v>
       </c>
     </row>
   </sheetData>

--- a/TP4/diferencia_medias_train_test.xlsx
+++ b/TP4/diferencia_medias_train_test.xlsx
@@ -1,37 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Media_Train</t>
+  </si>
+  <si>
+    <t>Media_Test</t>
+  </si>
+  <si>
+    <t>Diferencia_Medias</t>
+  </si>
+  <si>
+    <t>P_Value</t>
+  </si>
+  <si>
+    <t>horastrab</t>
+  </si>
+  <si>
+    <t>educ</t>
+  </si>
+  <si>
+    <t>edad</t>
+  </si>
+  <si>
+    <t>edad2</t>
+  </si>
+  <si>
+    <t>cobertura_medica</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>estado_civil</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +96,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,404 +412,354 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Año</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Media_Train</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Media_Test</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Diferencia_Medias</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>P_Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
         <v>2005</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>horastrab</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>13.30628964059197</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>13.68495684340321</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-0.3786672028112399</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.6013802374283176</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3">
         <v>2005</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>educ</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>8.387191539365453</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>8.154005524861878</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.2331860145035751</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.1000905448584451</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:6">
+      <c r="A4">
         <v>2005</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>edad</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>29.07056025369979</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>28.63255240443896</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.4380078492608241</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.4719052376436458</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:6">
+      <c r="A5">
         <v>2005</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>edad2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>1269.653012684989</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1238.689272503083</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>30.96374018190681</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.5004746018921158</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:6">
+      <c r="A6">
         <v>2005</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>cobertura_medica</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
         <v>2.642838161041722</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2.726485148514851</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-0.08364698747312937</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.08815778470472678</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:6">
+      <c r="A7">
         <v>2005</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>sexo</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
         <v>1.519820295983087</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1.514796547472256</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.005023748510830206</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.7348998821656691</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:6">
+      <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ESTADO</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
         <v>2.467460317460318</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>2.451294697903823</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.01616561955649498</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.6343202395194976</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:6">
+      <c r="A9">
         <v>2005</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>estado_civil</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
         <v>3.744186046511628</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>3.749075215782984</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-0.004889169271355964</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.916227049510597</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:6">
+      <c r="A10">
         <v>2025</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>horastrab</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
         <v>36.73719376391982</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>35.92676767676767</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.8104260871521447</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.4568351174208127</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:6">
+      <c r="A11">
         <v>2025</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>educ</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
         <v>9.759351059035602</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>9.857749469214438</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-0.09839841017883622</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.5800231907889186</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:6">
+      <c r="A12">
         <v>2025</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>edad</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
         <v>35.85233160621762</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>34.91758793969849</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>0.9347436665191253</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.2512870735236939</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:6">
+      <c r="A13">
         <v>2025</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>edad2</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
         <v>1755.186528497409</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>1677.008040201005</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>78.17848829640434</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.2361784759763454</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:6">
+      <c r="A14">
         <v>2025</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>cobertura_medica</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
         <v>2.223478260869565</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>2.261352169525732</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-0.03787390865616658</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.7775339479725329</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:6">
+      <c r="A15">
         <v>2025</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>sexo</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
         <v>1.533361847733105</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1.532934131736527</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>0.000427715996578204</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.9818955340061148</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:6">
+      <c r="A16">
         <v>2025</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ESTADO</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
         <v>2.337895637296835</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>2.320359281437126</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>0.01753635585970903</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.6801715739409603</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:6">
+      <c r="A17">
         <v>2025</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>estado_civil</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
         <v>3.535928143712575</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>3.596806387225549</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-0.060878243512974</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.3326346976957557</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TP4/diferencia_medias_train_test.xlsx
+++ b/TP4/diferencia_medias_train_test.xlsx
@@ -607,16 +607,16 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>36.73719376391982</v>
+        <v>14.11035072711719</v>
       </c>
       <c r="D10">
-        <v>35.92676767676767</v>
+        <v>14.19860279441118</v>
       </c>
       <c r="E10">
-        <v>0.8104260871521447</v>
+        <v>-0.08825206729398438</v>
       </c>
       <c r="F10">
-        <v>0.4568351174208127</v>
+        <v>0.9112373274349306</v>
       </c>
     </row>
     <row r="11" spans="1:6">
